--- a/docs/balance_sheet_em.xlsx
+++ b/docs/balance_sheet_em.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\tmp\akshare\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315A056B-15C0-4323-99BF-D6AAC1D5A3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="207" windowWidth="16560" windowHeight="10973" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2544" yWindow="204" windowWidth="16560" windowHeight="10968"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1255,12 +1249,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1272,7 +1266,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1326,7 +1320,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1625,19 +1619,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB320"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="28.05859375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -1720,7 +1714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1806,7 +1800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1892,7 +1886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1978,7 +1972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -2064,7 +2058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:28">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -2150,7 +2144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:28">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -2236,7 +2230,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28">
       <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
@@ -2322,7 +2316,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:28">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
@@ -2408,7 +2402,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:28">
       <c r="A10" s="3" t="s">
         <v>68</v>
       </c>
@@ -2494,7 +2488,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:28">
       <c r="A11" s="3" t="s">
         <v>70</v>
       </c>
@@ -2580,7 +2574,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:28">
       <c r="A12" s="3" t="s">
         <v>95</v>
       </c>
@@ -2666,7 +2660,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:28">
       <c r="A13" s="3" t="s">
         <v>99</v>
       </c>
@@ -2752,7 +2746,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:28">
       <c r="A14" s="3" t="s">
         <v>101</v>
       </c>
@@ -2799,7 +2793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:28">
       <c r="A15" s="3" t="s">
         <v>102</v>
       </c>
@@ -2885,7 +2879,7 @@
         <v>25626956.390000001</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:28">
       <c r="A16" s="3" t="s">
         <v>103</v>
       </c>
@@ -2947,7 +2941,7 @@
         <v>47884805.68</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:28">
       <c r="A17" s="3" t="s">
         <v>104</v>
       </c>
@@ -2958,7 +2952,7 @@
         <v>1305119.69</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:28">
       <c r="A18" s="3" t="s">
         <v>105</v>
       </c>
@@ -3029,47 +3023,47 @@
         <v>93845099.560000002</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:28">
       <c r="A19" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:28">
       <c r="A20" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:28">
       <c r="A21" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:28">
       <c r="A22" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:28">
       <c r="A23" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:28">
       <c r="A24" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:28">
       <c r="A25" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:28">
       <c r="A26" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:28">
       <c r="A27" s="3" t="s">
         <v>114</v>
       </c>
@@ -3140,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:28">
       <c r="A28" s="3" t="s">
         <v>115</v>
       </c>
@@ -3157,12 +3151,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:28">
       <c r="A29" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:28">
       <c r="A30" s="3" t="s">
         <v>117</v>
       </c>
@@ -3185,17 +3179,17 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:28">
       <c r="A31" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:28">
       <c r="A32" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:28">
       <c r="A33" s="3" t="s">
         <v>120</v>
       </c>
@@ -3206,7 +3200,7 @@
         <v>3504849885.0500002</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:28">
       <c r="A34" s="3" t="s">
         <v>121</v>
       </c>
@@ -3289,7 +3283,7 @@
         <v>88432681.620000005</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:28">
       <c r="A35" s="3" t="s">
         <v>122</v>
       </c>
@@ -3369,17 +3363,17 @@
         <v>5776136.6299999999</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:28">
       <c r="A36" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:28">
       <c r="A37" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:28">
       <c r="A38" s="3" t="s">
         <v>125</v>
       </c>
@@ -3399,12 +3393,12 @@
         <v>13321549147.690001</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:28">
       <c r="A39" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:28">
       <c r="A40" s="3" t="s">
         <v>127</v>
       </c>
@@ -3424,7 +3418,7 @@
         <v>20143397.780000001</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:28">
       <c r="A41" s="3" t="s">
         <v>128</v>
       </c>
@@ -3495,7 +3489,7 @@
         <v>68959433.349999994</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:28">
       <c r="A42" s="3" t="s">
         <v>129</v>
       </c>
@@ -3551,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:28">
       <c r="A43" s="3" t="s">
         <v>130</v>
       </c>
@@ -3622,7 +3616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:28">
       <c r="A44" s="3" t="s">
         <v>131</v>
       </c>
@@ -3684,17 +3678,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:28">
       <c r="A45" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:28">
       <c r="A46" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:28">
       <c r="A47" s="3" t="s">
         <v>134</v>
       </c>
@@ -3756,7 +3750,7 @@
         <v>170093497.96000001</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:28">
       <c r="A48" s="3" t="s">
         <v>135</v>
       </c>
@@ -3776,17 +3770,17 @@
         <v>72692601.010000005</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:28">
       <c r="A49" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:28">
       <c r="A50" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:28">
       <c r="A51" s="3" t="s">
         <v>138</v>
       </c>
@@ -3800,17 +3794,17 @@
         <v>190536632.59999999</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:28">
       <c r="A52" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:28">
       <c r="A53" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:28">
       <c r="A54" s="3" t="s">
         <v>141</v>
       </c>
@@ -3845,12 +3839,12 @@
         <v>5617043.5599999996</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:28">
       <c r="A55" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:28">
       <c r="A56" s="3" t="s">
         <v>143</v>
       </c>
@@ -3897,7 +3891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:28">
       <c r="A57" s="3" t="s">
         <v>144</v>
       </c>
@@ -3908,27 +3902,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:28">
       <c r="A58" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:28">
       <c r="A59" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:28">
       <c r="A60" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:28">
       <c r="A61" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:28">
       <c r="A62" s="3" t="s">
         <v>149</v>
       </c>
@@ -4011,7 +4005,7 @@
         <v>213023445.34999999</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:28">
       <c r="A63" s="3" t="s">
         <v>150</v>
       </c>
@@ -4025,27 +4019,27 @@
         <v>449993.46</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:28">
       <c r="A64" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:28">
       <c r="A65" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:28">
       <c r="A66" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:28">
       <c r="A67" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:28">
       <c r="A68" s="3" t="s">
         <v>155</v>
       </c>
@@ -4086,12 +4080,12 @@
         <v>13296286.27</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:28">
       <c r="A69" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:28">
       <c r="A70" s="3" t="s">
         <v>157</v>
       </c>
@@ -4123,22 +4117,22 @@
         <v>42769450</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:28">
       <c r="A71" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:28">
       <c r="A72" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:28">
       <c r="A73" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:28">
       <c r="A74" s="3" t="s">
         <v>161</v>
       </c>
@@ -4221,7 +4215,7 @@
         <v>935000</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:28">
       <c r="A75" s="3" t="s">
         <v>162</v>
       </c>
@@ -4247,7 +4241,7 @@
         <v>27383888.890000001</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:28">
       <c r="A76" s="3" t="s">
         <v>163</v>
       </c>
@@ -4288,17 +4282,17 @@
         <v>3584400</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:28">
       <c r="A77" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:28">
       <c r="A78" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:28">
       <c r="A79" s="3" t="s">
         <v>166</v>
       </c>
@@ -4384,7 +4378,7 @@
         <v>316665851.52999997</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:28">
       <c r="A80" s="3" t="s">
         <v>167</v>
       </c>
@@ -4401,7 +4395,7 @@
         <v>5242431.75</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:28">
       <c r="A81" s="3" t="s">
         <v>168</v>
       </c>
@@ -4418,7 +4412,7 @@
         <v>296466199.74000001</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:28">
       <c r="A82" s="3" t="s">
         <v>169</v>
       </c>
@@ -4444,7 +4438,7 @@
         <v>390000000</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:28">
       <c r="A83" s="3" t="s">
         <v>170</v>
       </c>
@@ -4515,7 +4509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:28">
       <c r="A84" s="3" t="s">
         <v>171</v>
       </c>
@@ -4544,12 +4538,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:28">
       <c r="A85" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:28">
       <c r="A86" s="3" t="s">
         <v>173</v>
       </c>
@@ -4566,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:28">
       <c r="A87" s="3" t="s">
         <v>174</v>
       </c>
@@ -4607,12 +4601,12 @@
         <v>90527500</v>
       </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:28">
       <c r="A88" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:28">
       <c r="A89" s="3" t="s">
         <v>176</v>
       </c>
@@ -4653,7 +4647,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:28">
       <c r="A90" s="3" t="s">
         <v>177</v>
       </c>
@@ -4661,7 +4655,7 @@
         <v>60360000</v>
       </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:28">
       <c r="A91" s="3" t="s">
         <v>178</v>
       </c>
@@ -4669,7 +4663,7 @@
         <v>15570000</v>
       </c>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:28">
       <c r="A92" s="3" t="s">
         <v>179</v>
       </c>
@@ -4755,12 +4749,12 @@
         <v>7917934.4500000002</v>
       </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:28">
       <c r="A93" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:28">
       <c r="A94" s="3" t="s">
         <v>181</v>
       </c>
@@ -4771,7 +4765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:28">
       <c r="A95" s="3" t="s">
         <v>182</v>
       </c>
@@ -4851,7 +4845,7 @@
         <v>1358890.07</v>
       </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:28">
       <c r="A96" s="3" t="s">
         <v>183</v>
       </c>
@@ -4937,7 +4931,7 @@
         <v>124765368.73999999</v>
       </c>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:28">
       <c r="A97" s="3" t="s">
         <v>184</v>
       </c>
@@ -4951,7 +4945,7 @@
         <v>17000000</v>
       </c>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:28">
       <c r="A98" s="3" t="s">
         <v>185</v>
       </c>
@@ -5022,7 +5016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:28">
       <c r="A99" s="3" t="s">
         <v>186</v>
       </c>
@@ -5045,7 +5039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:28">
       <c r="A100" s="3" t="s">
         <v>187</v>
       </c>
@@ -5065,7 +5059,7 @@
         <v>57360000</v>
       </c>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:28">
       <c r="A101" s="3" t="s">
         <v>188</v>
       </c>
@@ -5118,7 +5112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:28">
       <c r="A102" s="3" t="s">
         <v>189</v>
       </c>
@@ -5141,7 +5135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:28">
       <c r="A103" s="3" t="s">
         <v>190</v>
       </c>
@@ -5227,7 +5221,7 @@
         <v>25626956.390000001</v>
       </c>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:28">
       <c r="A104" s="3" t="s">
         <v>191</v>
       </c>
@@ -5307,12 +5301,12 @@
         <v>13412198</v>
       </c>
     </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:28">
       <c r="A105" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:28">
       <c r="A106" s="3" t="s">
         <v>193</v>
       </c>
@@ -5392,12 +5386,12 @@
         <v>13412198</v>
       </c>
     </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:28">
       <c r="A107" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:28">
       <c r="A108" s="3" t="s">
         <v>195</v>
       </c>
@@ -5438,12 +5432,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:28">
       <c r="A109" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:28">
       <c r="A110" s="3" t="s">
         <v>197</v>
       </c>
@@ -5475,7 +5469,7 @@
         <v>231474570.63</v>
       </c>
     </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:28">
       <c r="A111" s="3" t="s">
         <v>198</v>
       </c>
@@ -5495,12 +5489,12 @@
         <v>1609801368.51</v>
       </c>
     </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:28">
       <c r="A112" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:28">
       <c r="A113" s="3" t="s">
         <v>200</v>
       </c>
@@ -5511,7 +5505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:28">
       <c r="A114" s="3" t="s">
         <v>201</v>
       </c>
@@ -5522,7 +5516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:28">
       <c r="A115" s="3" t="s">
         <v>202</v>
       </c>
@@ -5536,7 +5530,7 @@
         <v>2059761333.3299999</v>
       </c>
     </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:28">
       <c r="A116" s="3" t="s">
         <v>203</v>
       </c>
@@ -5553,12 +5547,12 @@
         <v>319770404.05000001</v>
       </c>
     </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:28">
       <c r="A117" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:28">
       <c r="A118" s="3" t="s">
         <v>205</v>
       </c>
@@ -5623,7 +5617,7 @@
         <v>18613175.010000002</v>
       </c>
     </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:28">
       <c r="A119" s="3" t="s">
         <v>206</v>
       </c>
@@ -5682,7 +5676,7 @@
         <v>9792294.1199999992</v>
       </c>
     </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:28">
       <c r="A120" s="3" t="s">
         <v>207</v>
       </c>
@@ -5753,7 +5747,7 @@
         <v>234091527.97999999</v>
       </c>
     </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:28">
       <c r="A121" s="3" t="s">
         <v>208</v>
       </c>
@@ -5782,7 +5776,7 @@
         <v>141570000</v>
       </c>
     </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:28">
       <c r="A122" s="3" t="s">
         <v>209</v>
       </c>
@@ -5793,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:28">
       <c r="A123" s="3" t="s">
         <v>210</v>
       </c>
@@ -5804,17 +5798,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:28">
       <c r="A124" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:28">
       <c r="A125" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:28">
       <c r="A126" s="3" t="s">
         <v>213</v>
       </c>
@@ -5825,7 +5819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:28">
       <c r="A127" s="3" t="s">
         <v>214</v>
       </c>
@@ -5836,12 +5830,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:28">
       <c r="A128" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:28">
       <c r="A129" s="3" t="s">
         <v>216</v>
       </c>
@@ -5927,12 +5921,12 @@
         <v>10516948.130000001</v>
       </c>
     </row>
-    <row r="130" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:28">
       <c r="A130" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:28">
       <c r="A131" s="3" t="s">
         <v>218</v>
       </c>
@@ -5973,32 +5967,32 @@
         <v>10991173.91</v>
       </c>
     </row>
-    <row r="132" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:28">
       <c r="A132" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:28">
       <c r="A133" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:28">
       <c r="A134" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:28">
       <c r="A135" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="136" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:28">
       <c r="A136" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="137" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:28">
       <c r="A137" s="3" t="s">
         <v>224</v>
       </c>
@@ -6081,17 +6075,17 @@
         <v>185000000</v>
       </c>
     </row>
-    <row r="138" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:28">
       <c r="A138" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="139" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:28">
       <c r="A139" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="140" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:28">
       <c r="A140" s="3" t="s">
         <v>227</v>
       </c>
@@ -6108,7 +6102,7 @@
         <v>147000000</v>
       </c>
     </row>
-    <row r="141" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:28">
       <c r="A141" s="3" t="s">
         <v>228</v>
       </c>
@@ -6146,12 +6140,12 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="142" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:28">
       <c r="A142" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="143" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:28">
       <c r="A143" s="3" t="s">
         <v>230</v>
       </c>
@@ -6234,12 +6228,12 @@
         <v>890294.04</v>
       </c>
     </row>
-    <row r="144" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:28">
       <c r="A144" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="145" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:28">
       <c r="A145" s="3" t="s">
         <v>232</v>
       </c>
@@ -6322,7 +6316,7 @@
         <v>6166053.1900000004</v>
       </c>
     </row>
-    <row r="146" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:28">
       <c r="A146" s="3" t="s">
         <v>233</v>
       </c>
@@ -6408,7 +6402,7 @@
         <v>162312222.61000001</v>
       </c>
     </row>
-    <row r="147" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:28">
       <c r="A147" s="3" t="s">
         <v>234</v>
       </c>
@@ -6494,7 +6488,7 @@
         <v>741848981.54999995</v>
       </c>
     </row>
-    <row r="148" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:28">
       <c r="A148" s="3" t="s">
         <v>235</v>
       </c>
@@ -6580,7 +6574,7 @@
         <v>520907601.75</v>
       </c>
     </row>
-    <row r="149" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:28">
       <c r="A149" s="3" t="s">
         <v>236</v>
       </c>
@@ -6666,7 +6660,7 @@
         <v>447397453.56999999</v>
       </c>
     </row>
-    <row r="150" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:28">
       <c r="A150" s="3" t="s">
         <v>237</v>
       </c>
@@ -6752,7 +6746,7 @@
         <v>234091527.97999999</v>
       </c>
     </row>
-    <row r="151" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:28">
       <c r="A151" s="3" t="s">
         <v>238</v>
       </c>
@@ -6838,7 +6832,7 @@
         <v>741848981.54999995</v>
       </c>
     </row>
-    <row r="152" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:28">
       <c r="A152" s="3" t="s">
         <v>239</v>
       </c>
@@ -6924,7 +6918,7 @@
         <v>507757453.56999999</v>
       </c>
     </row>
-    <row r="153" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:28">
       <c r="A153" s="3" t="s">
         <v>240</v>
       </c>
@@ -7010,7 +7004,7 @@
         <v>220941379.80000001</v>
       </c>
     </row>
-    <row r="154" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:28">
       <c r="A154" s="3" t="s">
         <v>241</v>
       </c>
@@ -7069,7 +7063,7 @@
         <v>60360000</v>
       </c>
     </row>
-    <row r="155" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:28">
       <c r="A155" s="3" t="s">
         <v>242</v>
       </c>
@@ -7155,7 +7149,7 @@
         <v>18613175.010000002</v>
       </c>
     </row>
-    <row r="156" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:28">
       <c r="A156" s="3" t="s">
         <v>243</v>
       </c>
@@ -7235,7 +7229,7 @@
         <v>9792294.1199999992</v>
       </c>
     </row>
-    <row r="157" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:28">
       <c r="A157" s="3" t="s">
         <v>244</v>
       </c>
@@ -7321,12 +7315,12 @@
         <v>234091527.97999999</v>
       </c>
     </row>
-    <row r="158" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:28">
       <c r="A158" s="3" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="159" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:28">
       <c r="A159" s="3" t="s">
         <v>246</v>
       </c>
@@ -7337,22 +7331,22 @@
         <v>400712059.93000001</v>
       </c>
     </row>
-    <row r="160" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:28">
       <c r="A160" s="3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:27">
       <c r="A161" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:27">
       <c r="A162" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:27">
       <c r="A163" s="3" t="s">
         <v>250</v>
       </c>
@@ -7435,12 +7429,12 @@
         <v>5763120.4199999999</v>
       </c>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:27">
       <c r="A164" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:27">
       <c r="A165" s="3" t="s">
         <v>252</v>
       </c>
@@ -7457,7 +7451,7 @@
         <v>362785970.23000002</v>
       </c>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:27">
       <c r="A166" s="3" t="s">
         <v>253</v>
       </c>
@@ -7495,7 +7489,7 @@
         <v>42.667902085999998</v>
       </c>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:27">
       <c r="A167" s="3" t="s">
         <v>254</v>
       </c>
@@ -7578,7 +7572,7 @@
         <v>20.653781430199999</v>
       </c>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:27">
       <c r="A168" s="3" t="s">
         <v>255</v>
       </c>
@@ -7634,7 +7628,7 @@
         <v>-2.4733426254999999</v>
       </c>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:27">
       <c r="A169" s="3" t="s">
         <v>256</v>
       </c>
@@ -7642,7 +7636,7 @@
         <v>-90.274301202199993</v>
       </c>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:27">
       <c r="A170" s="3" t="s">
         <v>257</v>
       </c>
@@ -7710,62 +7704,62 @@
         <v>-8.3464546969000004</v>
       </c>
     </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:27">
       <c r="A171" s="3" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:27">
       <c r="A172" s="3" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:27">
       <c r="A173" s="3" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:27">
       <c r="A174" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:27">
       <c r="A175" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:27">
       <c r="A176" s="3" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="177" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:26">
       <c r="A177" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="178" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:26">
       <c r="A178" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="179" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:26">
       <c r="A179" s="3" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="180" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:26">
       <c r="A180" s="3" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="181" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:26">
       <c r="A181" s="3" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="182" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:26">
       <c r="A182" s="3" t="s">
         <v>269</v>
       </c>
@@ -7785,17 +7779,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:26">
       <c r="A183" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="184" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:26">
       <c r="A184" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="185" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:26">
       <c r="A185" s="3" t="s">
         <v>272</v>
       </c>
@@ -7803,7 +7797,7 @@
         <v>106.00912814839999</v>
       </c>
     </row>
-    <row r="186" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:26">
       <c r="A186" s="3" t="s">
         <v>273</v>
       </c>
@@ -7883,7 +7877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:26">
       <c r="A187" s="3" t="s">
         <v>274</v>
       </c>
@@ -7960,17 +7954,17 @@
         <v>2705.4873876831998</v>
       </c>
     </row>
-    <row r="188" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:26">
       <c r="A188" s="3" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="189" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:26">
       <c r="A189" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="190" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:26">
       <c r="A190" s="3" t="s">
         <v>277</v>
       </c>
@@ -7987,12 +7981,12 @@
         <v>-4.5271300880999998</v>
       </c>
     </row>
-    <row r="191" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:26">
       <c r="A191" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="192" spans="1:26" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:26">
       <c r="A192" s="3" t="s">
         <v>279</v>
       </c>
@@ -8009,7 +8003,7 @@
         <v>746.27541774140002</v>
       </c>
     </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:27">
       <c r="A193" s="3" t="s">
         <v>280</v>
       </c>
@@ -8032,7 +8026,7 @@
         <v>4.9489090386000001</v>
       </c>
     </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:27">
       <c r="A194" s="3" t="s">
         <v>281</v>
       </c>
@@ -8049,12 +8043,12 @@
         <v>416.84732011289998</v>
       </c>
     </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:27">
       <c r="A195" s="3" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:27">
       <c r="A196" s="3" t="s">
         <v>283</v>
       </c>
@@ -8080,17 +8074,17 @@
         <v>-77.723322202999995</v>
       </c>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:27">
       <c r="A197" s="3" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:27">
       <c r="A198" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:27">
       <c r="A199" s="3" t="s">
         <v>286</v>
       </c>
@@ -8149,7 +8143,7 @@
         <v>-68.929111892099996</v>
       </c>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:27">
       <c r="A200" s="3" t="s">
         <v>287</v>
       </c>
@@ -8163,17 +8157,17 @@
         <v>-97.994963435399995</v>
       </c>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:27">
       <c r="A201" s="3" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:27">
       <c r="A202" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:27">
       <c r="A203" s="3" t="s">
         <v>290</v>
       </c>
@@ -8184,17 +8178,17 @@
         <v>14.421858156600001</v>
       </c>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:27">
       <c r="A204" s="3" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:27">
       <c r="A205" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:27">
       <c r="A206" s="3" t="s">
         <v>293</v>
       </c>
@@ -8217,47 +8211,47 @@
         <v>2839.4079632169</v>
       </c>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:27">
       <c r="A207" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:27">
       <c r="A208" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:25">
       <c r="A209" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:25">
       <c r="A210" s="3" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:25">
       <c r="A211" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:25">
       <c r="A212" s="3" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:25">
       <c r="A213" s="3" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:25">
       <c r="A214" s="3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:25">
       <c r="A215" s="3" t="s">
         <v>302</v>
       </c>
@@ -8334,27 +8328,27 @@
         <v>129.72437993310001</v>
       </c>
     </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:25">
       <c r="A216" s="3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:25">
       <c r="A217" s="3" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:25">
       <c r="A218" s="3" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:25">
       <c r="A219" s="3" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:25">
       <c r="A220" s="3" t="s">
         <v>307</v>
       </c>
@@ -8392,12 +8386,12 @@
         <v>641.51910065640004</v>
       </c>
     </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:25">
       <c r="A221" s="3" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:25">
       <c r="A222" s="3" t="s">
         <v>309</v>
       </c>
@@ -8426,22 +8420,22 @@
         <v>35.610815664</v>
       </c>
     </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:25">
       <c r="A223" s="3" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:25">
       <c r="A224" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:27">
       <c r="A225" s="3" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:27">
       <c r="A226" s="3" t="s">
         <v>313</v>
       </c>
@@ -8521,7 +8515,7 @@
         <v>-18.181818181800001</v>
       </c>
     </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:27">
       <c r="A227" s="3" t="s">
         <v>314</v>
       </c>
@@ -8544,7 +8538,7 @@
         <v>-43.8896426592</v>
       </c>
     </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:27">
       <c r="A228" s="3" t="s">
         <v>315</v>
       </c>
@@ -8582,17 +8576,17 @@
         <v>-22.342651489800001</v>
       </c>
     </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:27">
       <c r="A229" s="3" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:27">
       <c r="A230" s="3" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:27">
       <c r="A231" s="3" t="s">
         <v>318</v>
       </c>
@@ -8675,7 +8669,7 @@
         <v>33.705955386200003</v>
       </c>
     </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:27">
       <c r="A232" s="3" t="s">
         <v>319</v>
       </c>
@@ -8689,7 +8683,7 @@
         <v>1.7666465567</v>
       </c>
     </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:27">
       <c r="A233" s="3" t="s">
         <v>320</v>
       </c>
@@ -8703,7 +8697,7 @@
         <v>12.8114918609</v>
       </c>
     </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:27">
       <c r="A234" s="3" t="s">
         <v>321</v>
       </c>
@@ -8723,27 +8717,27 @@
         <v>0.70011186430000005</v>
       </c>
     </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:27">
       <c r="A235" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:27">
       <c r="A236" s="3" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:27">
       <c r="A237" s="3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:27">
       <c r="A238" s="3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:27">
       <c r="A239" s="3" t="s">
         <v>326</v>
       </c>
@@ -8781,12 +8775,12 @@
         <v>-65.966142884800007</v>
       </c>
     </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:27">
       <c r="A240" s="3" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="241" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:27">
       <c r="A241" s="3" t="s">
         <v>328</v>
       </c>
@@ -8824,17 +8818,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:27">
       <c r="A242" s="3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="243" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:27">
       <c r="A243" s="3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="244" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:27">
       <c r="A244" s="3" t="s">
         <v>331</v>
       </c>
@@ -8917,17 +8911,17 @@
         <v>6.6249916983999997</v>
       </c>
     </row>
-    <row r="245" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:27">
       <c r="A245" s="3" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="246" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:27">
       <c r="A246" s="3" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="247" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:27">
       <c r="A247" s="3" t="s">
         <v>334</v>
       </c>
@@ -9004,7 +8998,7 @@
         <v>394.22975104969998</v>
       </c>
     </row>
-    <row r="248" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:27">
       <c r="A248" s="3" t="s">
         <v>335</v>
       </c>
@@ -9087,12 +9081,12 @@
         <v>59.010963638</v>
       </c>
     </row>
-    <row r="249" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:27">
       <c r="A249" s="3" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="250" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:27">
       <c r="A250" s="3" t="s">
         <v>337</v>
       </c>
@@ -9100,12 +9094,12 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="251" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:27">
       <c r="A251" s="3" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="252" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:27">
       <c r="A252" s="3" t="s">
         <v>339</v>
       </c>
@@ -9119,17 +9113,17 @@
         <v>4.8229235680000002</v>
       </c>
     </row>
-    <row r="253" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:27">
       <c r="A253" s="3" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="254" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:27">
       <c r="A254" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="255" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:27">
       <c r="A255" s="3" t="s">
         <v>342</v>
       </c>
@@ -9212,7 +9206,7 @@
         <v>20.653781430199999</v>
       </c>
     </row>
-    <row r="256" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:27">
       <c r="A256" s="3" t="s">
         <v>343</v>
       </c>
@@ -9286,12 +9280,12 @@
         <v>275.66404611680002</v>
       </c>
     </row>
-    <row r="257" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:27">
       <c r="A257" s="3" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="258" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:27">
       <c r="A258" s="3" t="s">
         <v>345</v>
       </c>
@@ -9365,12 +9359,12 @@
         <v>-81.360251317500001</v>
       </c>
     </row>
-    <row r="259" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:27">
       <c r="A259" s="3" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="260" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:27">
       <c r="A260" s="3" t="s">
         <v>347</v>
       </c>
@@ -9405,12 +9399,12 @@
         <v>-2005.5168421876001</v>
       </c>
     </row>
-    <row r="261" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:27">
       <c r="A261" s="3" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="262" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:27">
       <c r="A262" s="3" t="s">
         <v>349</v>
       </c>
@@ -9439,7 +9433,7 @@
         <v>-83.782567826900006</v>
       </c>
     </row>
-    <row r="263" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:27">
       <c r="A263" s="3" t="s">
         <v>350</v>
       </c>
@@ -9456,22 +9450,22 @@
         <v>-4.5859741912</v>
       </c>
     </row>
-    <row r="264" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:27">
       <c r="A264" s="3" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="265" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:27">
       <c r="A265" s="3" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="266" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:27">
       <c r="A266" s="3" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="267" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:27">
       <c r="A267" s="3" t="s">
         <v>354</v>
       </c>
@@ -9479,7 +9473,7 @@
         <v>112.11062382590001</v>
       </c>
     </row>
-    <row r="268" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:27">
       <c r="A268" s="3" t="s">
         <v>355</v>
       </c>
@@ -9490,12 +9484,12 @@
         <v>-96.925902839800003</v>
       </c>
     </row>
-    <row r="269" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:27">
       <c r="A269" s="3" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="270" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:27">
       <c r="A270" s="3" t="s">
         <v>357</v>
       </c>
@@ -9557,7 +9551,7 @@
         <v>217.11371847250001</v>
       </c>
     </row>
-    <row r="271" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:27">
       <c r="A271" s="3" t="s">
         <v>358</v>
       </c>
@@ -9613,7 +9607,7 @@
         <v>240.2747752638</v>
       </c>
     </row>
-    <row r="272" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:27">
       <c r="A272" s="3" t="s">
         <v>359</v>
       </c>
@@ -9627,7 +9621,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="273" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:27">
       <c r="A273" s="3" t="s">
         <v>360</v>
       </c>
@@ -9635,42 +9629,42 @@
         <v>366.6666666667</v>
       </c>
     </row>
-    <row r="274" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:27">
       <c r="A274" s="3" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="275" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:27">
       <c r="A275" s="3" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="276" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:27">
       <c r="A276" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="277" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:27">
       <c r="A277" s="3" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="278" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:27">
       <c r="A278" s="3" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="279" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:27">
       <c r="A279" s="3" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="280" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:27">
       <c r="A280" s="3" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="281" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:27">
       <c r="A281" s="3" t="s">
         <v>368</v>
       </c>
@@ -9753,12 +9747,12 @@
         <v>-16.8432882629</v>
       </c>
     </row>
-    <row r="282" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:27">
       <c r="A282" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="283" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:27">
       <c r="A283" s="3" t="s">
         <v>370</v>
       </c>
@@ -9796,32 +9790,32 @@
         <v>73.8533983401</v>
       </c>
     </row>
-    <row r="284" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:27">
       <c r="A284" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="285" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:27">
       <c r="A285" s="3" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="286" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:27">
       <c r="A286" s="3" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="287" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:27">
       <c r="A287" s="3" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="288" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:27">
       <c r="A288" s="3" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="289" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:27">
       <c r="A289" s="3" t="s">
         <v>376</v>
       </c>
@@ -9901,17 +9895,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:27">
       <c r="A290" s="3" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="291" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:27">
       <c r="A291" s="3" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="292" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:27">
       <c r="A292" s="3" t="s">
         <v>379</v>
       </c>
@@ -9922,7 +9916,7 @@
         <v>-20.340136054399998</v>
       </c>
     </row>
-    <row r="293" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:27">
       <c r="A293" s="3" t="s">
         <v>380</v>
       </c>
@@ -9954,12 +9948,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:27">
       <c r="A294" s="3" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="295" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:27">
       <c r="A295" s="3" t="s">
         <v>382</v>
       </c>
@@ -10039,12 +10033,12 @@
         <v>653.34550144800005</v>
       </c>
     </row>
-    <row r="296" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:27">
       <c r="A296" s="3" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="297" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:27">
       <c r="A297" s="3" t="s">
         <v>384</v>
       </c>
@@ -10124,7 +10118,7 @@
         <v>928.78501312440005</v>
       </c>
     </row>
-    <row r="298" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:27">
       <c r="A298" s="3" t="s">
         <v>385</v>
       </c>
@@ -10207,7 +10201,7 @@
         <v>71.491075517300004</v>
       </c>
     </row>
-    <row r="299" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:27">
       <c r="A299" s="3" t="s">
         <v>386</v>
       </c>
@@ -10290,7 +10284,7 @@
         <v>23.348144983400001</v>
       </c>
     </row>
-    <row r="300" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:27">
       <c r="A300" s="3" t="s">
         <v>387</v>
       </c>
@@ -10373,7 +10367,7 @@
         <v>38.235514715299999</v>
       </c>
     </row>
-    <row r="301" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:27">
       <c r="A301" s="3" t="s">
         <v>388</v>
       </c>
@@ -10456,7 +10450,7 @@
         <v>40.7462418629</v>
       </c>
     </row>
-    <row r="302" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:27">
       <c r="A302" s="3" t="s">
         <v>389</v>
       </c>
@@ -10539,7 +10533,7 @@
         <v>21.9018294649</v>
       </c>
     </row>
-    <row r="303" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:27">
       <c r="A303" s="3" t="s">
         <v>390</v>
       </c>
@@ -10622,7 +10616,7 @@
         <v>23.348144983400001</v>
       </c>
     </row>
-    <row r="304" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:27">
       <c r="A304" s="3" t="s">
         <v>391</v>
       </c>
@@ -10705,7 +10699,7 @@
         <v>24.0149401378</v>
       </c>
     </row>
-    <row r="305" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:28">
       <c r="A305" s="3" t="s">
         <v>392</v>
       </c>
@@ -10788,7 +10782,7 @@
         <v>-11.751409796300001</v>
       </c>
     </row>
-    <row r="306" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:28">
       <c r="A306" s="3" t="s">
         <v>393</v>
       </c>
@@ -10835,7 +10829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:28">
       <c r="A307" s="3" t="s">
         <v>394</v>
       </c>
@@ -10918,7 +10912,7 @@
         <v>217.11371847250001</v>
       </c>
     </row>
-    <row r="308" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:28">
       <c r="A308" s="3" t="s">
         <v>395</v>
       </c>
@@ -10995,7 +10989,7 @@
         <v>240.2747752638</v>
       </c>
     </row>
-    <row r="309" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:28">
       <c r="A309" s="3" t="s">
         <v>396</v>
       </c>
@@ -11078,7 +11072,7 @@
         <v>21.9018294649</v>
       </c>
     </row>
-    <row r="310" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:28">
       <c r="A310" s="3" t="s">
         <v>397</v>
       </c>
@@ -11086,27 +11080,27 @@
         <v>-37.982081187299997</v>
       </c>
     </row>
-    <row r="311" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:28">
       <c r="A311" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="312" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:28">
       <c r="A312" s="3" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="313" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:28">
       <c r="A313" s="3" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="314" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:28">
       <c r="A314" s="3" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="315" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:28">
       <c r="A315" s="3" t="s">
         <v>402</v>
       </c>
@@ -11186,12 +11180,12 @@
         <v>1731.5185617794</v>
       </c>
     </row>
-    <row r="316" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:28">
       <c r="A316" s="3" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="317" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:28">
       <c r="A317" s="3" t="s">
         <v>404</v>
       </c>
@@ -11205,7 +11199,7 @@
         <v>10.9611634664</v>
       </c>
     </row>
-    <row r="318" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:28">
       <c r="A318" s="3" t="s">
         <v>405</v>
       </c>
@@ -11291,12 +11285,12 @@
         <v>406</v>
       </c>
     </row>
-    <row r="319" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:28">
       <c r="A319" s="3" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="320" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:28">
       <c r="A320" s="3" t="s">
         <v>408</v>
       </c>
